--- a/hsn_master.xlsx
+++ b/hsn_master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CA_Lohit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CA_Lohit\Desktop\New folder (3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B591390C-2175-4BE9-9CCA-EFABBE5DDD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0FFC5C-192B-4995-B464-DEC0086D82EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14AF0B5A-8755-420D-8A78-9A485E0B23FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="17" xr2:uid="{14AF0B5A-8755-420D-8A78-9A485E0B23FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Handicrafts" sheetId="25" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="716">
   <si>
     <t>S. No.</t>
   </si>
@@ -2047,6 +2047,174 @@
   </si>
   <si>
     <t>90 or any other HSN</t>
+  </si>
+  <si>
+    <t>(ii) Composite supply of works contract provided by a sub- contractor to the main contractor providing services at (i) above to Government</t>
+  </si>
+  <si>
+    <t>(i) Composite supply of works contract services involving predominantly earth work (that is constituting more than 75 percent of the value of the works contract) provided to Government</t>
+  </si>
+  <si>
+    <t>(iii) Composite supply of works contract and associated services, in respect of offshore works contract relating to oil and gas exploration and production in offshore area</t>
+  </si>
+  <si>
+    <t>12% with ITC</t>
+  </si>
+  <si>
+    <t>18% with ITC</t>
+  </si>
+  <si>
+    <t>Supply of “hotel accommodation” having value of supply of a unit of accommodation less than or equal to seven thousand five hundred rupees per unit per day or equivalent</t>
+  </si>
+  <si>
+    <t>5% without ITC</t>
+  </si>
+  <si>
+    <t>(i) Supply of Air transport of passengers in other than economy class</t>
+  </si>
+  <si>
+    <t>(ii) Supply of Passenger transport by any motor vehicle where fuel cost is included</t>
+  </si>
+  <si>
+    <t>5% with ITC of input services (in the same line of
+business) or 12% with total ITC</t>
+  </si>
+  <si>
+    <t>5% with ITC of input services (in the same line of business) or 18% with total ITC</t>
+  </si>
+  <si>
+    <t>(i) Supply of Transport of goods by GTA</t>
+  </si>
+  <si>
+    <t>5% without ITC
+(RCM/FCM) or 12% with total ITC</t>
+  </si>
+  <si>
+    <t>5% without ITC
+(RCM/FCM) or 18% with total ITC</t>
+  </si>
+  <si>
+    <t>(ii) Supply of transport of goods in containers by rail by any person other than Indian Railways</t>
+  </si>
+  <si>
+    <t>5% without ITC or 18% with total ITC</t>
+  </si>
+  <si>
+    <t>(iii) Supply of transportation of natural gas, petroleum crude, motor spirit, high speed diesel
+or ATF through pipeline</t>
+  </si>
+  <si>
+    <t>5% without ITC or 12% with full ITC</t>
+  </si>
+  <si>
+    <t>5% without ITC or 18% with full ITC</t>
+  </si>
+  <si>
+    <t>(iv) Supply of Multimodal transport of goods within India</t>
+  </si>
+  <si>
+    <t>5%, where no leg of transport is through air, with restricted ITC (i.e. 5% of input services of goods
+transportation) or 18% with full ITC</t>
+  </si>
+  <si>
+    <t>(i) Supply of Renting of any motor vehicle (with operator) designed to carry passengers where the cost of fuel is included in consideration</t>
+  </si>
+  <si>
+    <t>5% with ITC of input services (in the same line of
+business) or 12% with full ITC</t>
+  </si>
+  <si>
+    <t>5% with ITC of input services (in the same line of business) or 18% with full ITC</t>
+  </si>
+  <si>
+    <t>(ii) Supply of Renting of goods carriage (with operator) where fuel cost is included in consideration</t>
+  </si>
+  <si>
+    <t>5% with ITC of input services (in the same line of business) or 18% with ITC</t>
+  </si>
+  <si>
+    <t>(i) Local delivery services</t>
+  </si>
+  <si>
+    <t>18% with ITC (no change)</t>
+  </si>
+  <si>
+    <t>(ii) Supply of local delivery services through Electronic Commerce Operator (ECO). Local delivery services provided by and through ECO to be excluded from	 the scope of GTA services</t>
+  </si>
+  <si>
+    <t>Not currently notified under section 9(5) of the CGST Act</t>
+  </si>
+  <si>
+    <t>To be notified u/s 9(5) of the Act @ 18%</t>
+  </si>
+  <si>
+    <t>5% with ITC</t>
+  </si>
+  <si>
+    <t>40% with ITC</t>
+  </si>
+  <si>
+    <t>Supply of Service of third-party insurance of “goods carriage”</t>
+  </si>
+  <si>
+    <t>Leasing or rental services, without operator, of goods which will attract 40% GST</t>
+  </si>
+  <si>
+    <t>28% with ITC</t>
+  </si>
+  <si>
+    <t>Other professional, technical and business services relating to exploration, mining or drilling of petroleum crude or natural gas or both;</t>
+  </si>
+  <si>
+    <t>Support services to exploration, mining or drilling of petroleum crude or natural gas or both.</t>
+  </si>
+  <si>
+    <t>(i) Supply of services by way of job work in relation to umbrella</t>
+  </si>
+  <si>
+    <t>(i) Supply of job work services or any treatment or process in relation to printing of all goods falling under Chapter 48 or 49, which attract GST @12% or  5%</t>
+  </si>
+  <si>
+    <t>(iii) Supply of job work in relation to bricks which attract GST at the rate of 5%</t>
+  </si>
+  <si>
+    <t>(iv) Supply of job-work services in relation goods falling under Chapter 30 in the First Schedule to the Customs Tariff Act, 1975 (51of 1975) (pharmaceutical products)</t>
+  </si>
+  <si>
+    <t>(v) Supply of job-work services in relation to Hides, skins and leather falling under Chapter 41 in the First Schedule to the Customs Tariff Act, 1975</t>
+  </si>
+  <si>
+    <t>(vi) Supply of job-work not elsewhere covered (residual entry)</t>
+  </si>
+  <si>
+    <t>(i) Services by way of treatment of effluents by a Common Effluent Treatment Plant;</t>
+  </si>
+  <si>
+    <t>(ii) Services by way of treatment or disposal of biomedical waste or the processes incidental thereto by a common bio- medical waste treatment facility to a clinical establishment.</t>
+  </si>
+  <si>
+    <t>(i) Services by way of admission to exhibition of cinematograph films where price of admission ticket is one hundred rupees or less.</t>
+  </si>
+  <si>
+    <t>(ii) Admission to casinos, race clubs, any place having casinos or race clubs, or sporting events like the IPL.</t>
+  </si>
+  <si>
+    <t>(iii) Services by a race club for licensing of bookmakers in such club.</t>
+  </si>
+  <si>
+    <t>Any Chapter</t>
+  </si>
+  <si>
+    <t>Beauty and physical well-being services falling under group 99972</t>
+  </si>
+  <si>
+    <t>Specified Actionable Claims (betting, casinos, gambling, horse racing, lottery, online money gaming) defined as goods</t>
+  </si>
+  <si>
+    <t>(i) All individual health insurance, along with reinsurance thereof</t>
+  </si>
+  <si>
+    <t>(ii) All individual life insurance, along with reinsurance thereof</t>
   </si>
 </sst>
 </file>
@@ -2320,7 +2488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2488,9 +2656,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2521,14 +2686,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6838,10 +7012,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5B9792-3D57-41CF-8C3E-7C742C675DB6}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:E705"/>
+  <dimension ref="A1:E685"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="A417" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.453125" defaultRowHeight="13"/>
@@ -6849,26 +7023,26 @@
     <col min="1" max="1" width="9.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.453125" style="3" customWidth="1"/>
     <col min="3" max="3" width="87.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="61" customWidth="1"/>
     <col min="6" max="16384" width="27.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:5">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>647</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6882,10 +7056,10 @@
       <c r="C3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E3" s="68">
+      <c r="D3" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -6899,10 +7073,10 @@
       <c r="C4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="60">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="69" t="s">
+      <c r="D4" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="68" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6916,10 +7090,10 @@
       <c r="C5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E5" s="68">
+      <c r="D5" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E5" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -6933,10 +7107,10 @@
       <c r="C6" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="D6" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E6" s="68">
+      <c r="D6" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E6" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -6950,10 +7124,10 @@
       <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E7" s="68">
+      <c r="D7" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E7" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -6967,10 +7141,10 @@
       <c r="C8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="60">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="69" t="s">
+      <c r="D8" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="68" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6984,10 +7158,10 @@
       <c r="C9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E9" s="68">
+      <c r="D9" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E9" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7001,10 +7175,10 @@
       <c r="C10" s="57" t="s">
         <v>553</v>
       </c>
-      <c r="D10" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E10" s="68">
+      <c r="D10" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E10" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7018,10 +7192,10 @@
       <c r="C11" s="57" t="s">
         <v>554</v>
       </c>
-      <c r="D11" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E11" s="68">
+      <c r="D11" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E11" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7035,10 +7209,10 @@
       <c r="C12" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="D12" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E12" s="68">
+      <c r="D12" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E12" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7052,10 +7226,10 @@
       <c r="C13" s="57" t="s">
         <v>651</v>
       </c>
-      <c r="D13" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E13" s="68">
+      <c r="D13" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E13" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7069,10 +7243,10 @@
       <c r="C14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="59">
         <v>0.18</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7086,10 +7260,10 @@
       <c r="C15" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E15" s="68">
+      <c r="D15" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E15" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7103,10 +7277,10 @@
       <c r="C16" s="57" t="s">
         <v>555</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="59">
         <v>0.18</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7120,10 +7294,10 @@
       <c r="C17" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="59">
         <v>0.18</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7137,10 +7311,10 @@
       <c r="C18" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="59">
         <v>0.18</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7154,10 +7328,10 @@
       <c r="C19" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="D19" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E19" s="68">
+      <c r="D19" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E19" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7171,10 +7345,10 @@
       <c r="C20" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="D20" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E20" s="68">
+      <c r="D20" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E20" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7188,10 +7362,10 @@
       <c r="C21" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="D21" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E21" s="68">
+      <c r="D21" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E21" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7205,10 +7379,10 @@
       <c r="C22" s="57" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E22" s="68">
+      <c r="D22" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E22" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7222,10 +7396,10 @@
       <c r="C23" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="D23" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E23" s="68">
+      <c r="D23" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E23" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7239,10 +7413,10 @@
       <c r="C24" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="D24" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E24" s="68">
+      <c r="D24" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E24" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7256,10 +7430,10 @@
       <c r="C25" s="57" t="s">
         <v>556</v>
       </c>
-      <c r="D25" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E25" s="68">
+      <c r="D25" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E25" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7273,10 +7447,10 @@
       <c r="C26" s="57" t="s">
         <v>657</v>
       </c>
-      <c r="D26" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E26" s="68">
+      <c r="D26" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E26" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7290,10 +7464,10 @@
       <c r="C27" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="59">
         <v>0.18</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7307,10 +7481,10 @@
       <c r="C28" s="57" t="s">
         <v>659</v>
       </c>
-      <c r="D28" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E28" s="68">
+      <c r="D28" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E28" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7324,10 +7498,10 @@
       <c r="C29" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="59">
         <v>0.18</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7341,10 +7515,10 @@
       <c r="C30" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="D30" s="60">
+      <c r="D30" s="59">
         <v>0.18</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7358,10 +7532,10 @@
       <c r="C31" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="59">
         <v>0.18</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7375,10 +7549,10 @@
       <c r="C32" s="57" t="s">
         <v>356</v>
       </c>
-      <c r="D32" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E32" s="68">
+      <c r="D32" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E32" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7392,10 +7566,10 @@
       <c r="C33" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D33" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E33" s="68">
+      <c r="D33" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E33" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7409,10 +7583,10 @@
       <c r="C34" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E34" s="68">
+      <c r="D34" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E34" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7426,10 +7600,10 @@
       <c r="C35" s="57" t="s">
         <v>358</v>
       </c>
-      <c r="D35" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E35" s="68">
+      <c r="D35" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E35" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7443,10 +7617,10 @@
       <c r="C36" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="D36" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E36" s="68">
+      <c r="D36" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E36" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7460,10 +7634,10 @@
       <c r="C37" s="57" t="s">
         <v>557</v>
       </c>
-      <c r="D37" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E37" s="68">
+      <c r="D37" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E37" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7477,10 +7651,10 @@
       <c r="C38" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="D38" s="60">
+      <c r="D38" s="59">
         <v>0.18</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7494,10 +7668,10 @@
       <c r="C39" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E39" s="68">
+      <c r="D39" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E39" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7511,10 +7685,10 @@
       <c r="C40" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="60">
+      <c r="D40" s="59">
         <v>0.18</v>
       </c>
-      <c r="E40" s="68">
+      <c r="E40" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7528,10 +7702,10 @@
       <c r="C41" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="60">
+      <c r="D41" s="59">
         <v>0.18</v>
       </c>
-      <c r="E41" s="68">
+      <c r="E41" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7545,10 +7719,10 @@
       <c r="C42" s="57" t="s">
         <v>385</v>
       </c>
-      <c r="D42" s="60">
+      <c r="D42" s="59">
         <v>0.18</v>
       </c>
-      <c r="E42" s="68">
+      <c r="E42" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7562,10 +7736,10 @@
       <c r="C43" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="60">
+      <c r="D43" s="59">
         <v>0.18</v>
       </c>
-      <c r="E43" s="68">
+      <c r="E43" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7579,10 +7753,10 @@
       <c r="C44" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="D44" s="60">
+      <c r="D44" s="59">
         <v>0.18</v>
       </c>
-      <c r="E44" s="68">
+      <c r="E44" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7596,10 +7770,10 @@
       <c r="C45" s="57" t="s">
         <v>362</v>
       </c>
-      <c r="D45" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E45" s="68">
+      <c r="D45" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E45" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7613,10 +7787,10 @@
       <c r="C46" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="60">
+      <c r="D46" s="59">
         <v>0.18</v>
       </c>
-      <c r="E46" s="68">
+      <c r="E46" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7630,10 +7804,10 @@
       <c r="C47" s="57" t="s">
         <v>561</v>
       </c>
-      <c r="D47" s="60">
+      <c r="D47" s="59">
         <v>0.18</v>
       </c>
-      <c r="E47" s="68">
+      <c r="E47" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7647,10 +7821,10 @@
       <c r="C48" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E48" s="68">
+      <c r="D48" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E48" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7664,10 +7838,10 @@
       <c r="C49" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="60">
-        <v>0.05</v>
-      </c>
-      <c r="E49" s="69" t="s">
+      <c r="D49" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="E49" s="68" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7681,10 +7855,10 @@
       <c r="C50" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="60">
-        <v>0.05</v>
-      </c>
-      <c r="E50" s="69" t="s">
+      <c r="D50" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="E50" s="68" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7698,10 +7872,10 @@
       <c r="C51" s="57" t="s">
         <v>364</v>
       </c>
-      <c r="D51" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E51" s="68">
+      <c r="D51" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E51" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7715,10 +7889,10 @@
       <c r="C52" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="D52" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E52" s="68">
+      <c r="D52" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E52" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7732,10 +7906,10 @@
       <c r="C53" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="D53" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E53" s="68">
+      <c r="D53" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E53" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7749,10 +7923,10 @@
       <c r="C54" s="57" t="s">
         <v>367</v>
       </c>
-      <c r="D54" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E54" s="68">
+      <c r="D54" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E54" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7766,10 +7940,10 @@
       <c r="C55" s="57" t="s">
         <v>368</v>
       </c>
-      <c r="D55" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E55" s="68">
+      <c r="D55" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E55" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7783,10 +7957,10 @@
       <c r="C56" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="D56" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E56" s="68">
+      <c r="D56" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E56" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7800,10 +7974,10 @@
       <c r="C57" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="D57" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E57" s="68">
+      <c r="D57" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E57" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7817,10 +7991,10 @@
       <c r="C58" s="57" t="s">
         <v>562</v>
       </c>
-      <c r="D58" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E58" s="68">
+      <c r="D58" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E58" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7834,10 +8008,10 @@
       <c r="C59" s="57" t="s">
         <v>563</v>
       </c>
-      <c r="D59" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E59" s="68">
+      <c r="D59" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E59" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7851,10 +8025,10 @@
       <c r="C60" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E60" s="68">
+      <c r="D60" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E60" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7868,10 +8042,10 @@
       <c r="C61" s="57" t="s">
         <v>389</v>
       </c>
-      <c r="D61" s="60">
+      <c r="D61" s="59">
         <v>0.18</v>
       </c>
-      <c r="E61" s="68">
+      <c r="E61" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7885,10 +8059,10 @@
       <c r="C62" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="D62" s="60">
+      <c r="D62" s="59">
         <v>0.18</v>
       </c>
-      <c r="E62" s="68">
+      <c r="E62" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7902,10 +8076,10 @@
       <c r="C63" s="57" t="s">
         <v>373</v>
       </c>
-      <c r="D63" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E63" s="68">
+      <c r="D63" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E63" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7919,10 +8093,10 @@
       <c r="C64" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="D64" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E64" s="68">
+      <c r="D64" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E64" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7936,10 +8110,10 @@
       <c r="C65" s="57" t="s">
         <v>375</v>
       </c>
-      <c r="D65" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E65" s="68">
+      <c r="D65" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E65" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7953,10 +8127,10 @@
       <c r="C66" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="D66" s="60">
+      <c r="D66" s="59">
         <v>0.18</v>
       </c>
-      <c r="E66" s="68">
+      <c r="E66" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7970,10 +8144,10 @@
       <c r="C67" s="57" t="s">
         <v>391</v>
       </c>
-      <c r="D67" s="60">
+      <c r="D67" s="59">
         <v>0.18</v>
       </c>
-      <c r="E67" s="68">
+      <c r="E67" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -7987,10 +8161,10 @@
       <c r="C68" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D68" s="60">
+      <c r="D68" s="59">
         <v>0.18</v>
       </c>
-      <c r="E68" s="69" t="s">
+      <c r="E68" s="68" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8004,10 +8178,10 @@
       <c r="C69" s="57" t="s">
         <v>376</v>
       </c>
-      <c r="D69" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E69" s="68">
+      <c r="D69" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E69" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8021,10 +8195,10 @@
       <c r="C70" s="57" t="s">
         <v>377</v>
       </c>
-      <c r="D70" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E70" s="68">
+      <c r="D70" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E70" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8038,10 +8212,10 @@
       <c r="C71" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="60">
+      <c r="D71" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E71" s="68">
+      <c r="E71" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -8055,10 +8229,10 @@
       <c r="C72" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E72" s="68">
+      <c r="D72" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E72" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8072,10 +8246,10 @@
       <c r="C73" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="60">
+      <c r="D73" s="59">
         <v>0.18</v>
       </c>
-      <c r="E73" s="68">
+      <c r="E73" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8089,10 +8263,10 @@
       <c r="C74" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E74" s="68">
+      <c r="D74" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E74" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8106,10 +8280,10 @@
       <c r="C75" s="57" t="s">
         <v>394</v>
       </c>
-      <c r="D75" s="60">
+      <c r="D75" s="59">
         <v>0.18</v>
       </c>
-      <c r="E75" s="68">
+      <c r="E75" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8123,10 +8297,10 @@
       <c r="C76" s="57" t="s">
         <v>564</v>
       </c>
-      <c r="D76" s="60">
+      <c r="D76" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E76" s="68">
+      <c r="E76" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -8140,10 +8314,10 @@
       <c r="C77" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="60">
+      <c r="D77" s="59">
         <v>0.18</v>
       </c>
-      <c r="E77" s="68">
+      <c r="E77" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -8157,10 +8331,10 @@
       <c r="C78" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="D78" s="60">
+      <c r="D78" s="59">
         <v>0.18</v>
       </c>
-      <c r="E78" s="68">
+      <c r="E78" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8174,10 +8348,10 @@
       <c r="C79" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E79" s="68">
+      <c r="D79" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E79" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8191,10 +8365,10 @@
       <c r="C80" s="57" t="s">
         <v>565</v>
       </c>
-      <c r="D80" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E80" s="68">
+      <c r="D80" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E80" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8208,10 +8382,10 @@
       <c r="C81" s="57" t="s">
         <v>400</v>
       </c>
-      <c r="D81" s="60">
+      <c r="D81" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E81" s="68">
+      <c r="E81" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -8225,10 +8399,10 @@
       <c r="C82" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E82" s="68">
+      <c r="D82" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E82" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8242,10 +8416,10 @@
       <c r="C83" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="60">
+      <c r="D83" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E83" s="68">
+      <c r="E83" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -8259,10 +8433,10 @@
       <c r="C84" s="57" t="s">
         <v>566</v>
       </c>
-      <c r="D84" s="60">
+      <c r="D84" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E84" s="68">
+      <c r="E84" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -8276,10 +8450,10 @@
       <c r="C85" s="57" t="s">
         <v>567</v>
       </c>
-      <c r="D85" s="60">
+      <c r="D85" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E85" s="68">
+      <c r="E85" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -8293,10 +8467,10 @@
       <c r="C86" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D86" s="60">
+      <c r="D86" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E86" s="68">
+      <c r="E86" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -8310,10 +8484,10 @@
       <c r="C87" s="57" t="s">
         <v>568</v>
       </c>
-      <c r="D87" s="60">
+      <c r="D87" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E87" s="68">
+      <c r="E87" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -8327,10 +8501,10 @@
       <c r="C88" s="57" t="s">
         <v>569</v>
       </c>
-      <c r="D88" s="60">
+      <c r="D88" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E88" s="68">
+      <c r="E88" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -8344,10 +8518,10 @@
       <c r="C89" s="57" t="s">
         <v>570</v>
       </c>
-      <c r="D89" s="60">
+      <c r="D89" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E89" s="68">
+      <c r="E89" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -8361,10 +8535,10 @@
       <c r="C90" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E90" s="68">
+      <c r="D90" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E90" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8378,10 +8552,10 @@
       <c r="C91" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D91" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E91" s="68">
+      <c r="D91" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E91" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8395,10 +8569,10 @@
       <c r="C92" s="57" t="s">
         <v>479</v>
       </c>
-      <c r="D92" s="60">
+      <c r="D92" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E92" s="68">
+      <c r="E92" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -8412,10 +8586,10 @@
       <c r="C93" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="D93" s="60">
-        <v>0.05</v>
-      </c>
-      <c r="E93" s="68">
+      <c r="D93" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="E93" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -8429,10 +8603,10 @@
       <c r="C94" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D94" s="60">
-        <v>0.05</v>
-      </c>
-      <c r="E94" s="68">
+      <c r="D94" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="E94" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -8446,10 +8620,10 @@
       <c r="C95" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D95" s="60">
-        <v>0.05</v>
-      </c>
-      <c r="E95" s="68">
+      <c r="D95" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="E95" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -8463,10 +8637,10 @@
       <c r="C96" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D96" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E96" s="68">
+      <c r="D96" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E96" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8480,10 +8654,10 @@
       <c r="C97" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E97" s="68">
+      <c r="D97" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E97" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8497,10 +8671,10 @@
       <c r="C98" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D98" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E98" s="68">
+      <c r="D98" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E98" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8514,10 +8688,10 @@
       <c r="C99" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E99" s="68">
+      <c r="D99" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E99" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8531,10 +8705,10 @@
       <c r="C100" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D100" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E100" s="68">
+      <c r="D100" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E100" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8548,10 +8722,10 @@
       <c r="C101" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D101" s="60">
+      <c r="D101" s="59">
         <v>0.18</v>
       </c>
-      <c r="E101" s="68">
+      <c r="E101" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8565,10 +8739,10 @@
       <c r="C102" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D102" s="60">
+      <c r="D102" s="59">
         <v>0.18</v>
       </c>
-      <c r="E102" s="68">
+      <c r="E102" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8582,10 +8756,10 @@
       <c r="C103" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D103" s="60">
+      <c r="D103" s="59">
         <v>0.18</v>
       </c>
-      <c r="E103" s="68">
+      <c r="E103" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8599,10 +8773,10 @@
       <c r="C104" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D104" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E104" s="68">
+      <c r="D104" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E104" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8616,10 +8790,10 @@
       <c r="C105" s="57" t="s">
         <v>571</v>
       </c>
-      <c r="D105" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E105" s="68">
+      <c r="D105" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E105" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8633,10 +8807,10 @@
       <c r="C106" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D106" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E106" s="68">
+      <c r="D106" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E106" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8650,10 +8824,10 @@
       <c r="C107" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D107" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E107" s="68">
+      <c r="D107" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E107" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8667,10 +8841,10 @@
       <c r="C108" s="57" t="s">
         <v>574</v>
       </c>
-      <c r="D108" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E108" s="68">
+      <c r="D108" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E108" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8684,10 +8858,10 @@
       <c r="C109" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D109" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E109" s="68">
+      <c r="D109" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E109" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -8701,10 +8875,10 @@
       <c r="C110" s="57" t="s">
         <v>575</v>
       </c>
-      <c r="D110" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E110" s="68">
+      <c r="D110" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E110" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -8718,10 +8892,10 @@
       <c r="C111" s="57" t="s">
         <v>576</v>
       </c>
-      <c r="D111" s="60">
-        <v>0.05</v>
-      </c>
-      <c r="E111" s="69" t="s">
+      <c r="D111" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="E111" s="68" t="s">
         <v>577</v>
       </c>
     </row>
@@ -8735,10 +8909,10 @@
       <c r="C112" s="57" t="s">
         <v>578</v>
       </c>
-      <c r="D112" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E112" s="69" t="s">
+      <c r="D112" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E112" s="68" t="s">
         <v>577</v>
       </c>
     </row>
@@ -8752,10 +8926,10 @@
       <c r="C113" s="57" t="s">
         <v>579</v>
       </c>
-      <c r="D113" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E113" s="68">
+      <c r="D113" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E113" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8769,10 +8943,10 @@
       <c r="C114" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="D114" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E114" s="68">
+      <c r="D114" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E114" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8786,10 +8960,10 @@
       <c r="C115" s="57" t="s">
         <v>580</v>
       </c>
-      <c r="D115" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E115" s="68">
+      <c r="D115" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E115" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8803,10 +8977,10 @@
       <c r="C116" s="57" t="s">
         <v>581</v>
       </c>
-      <c r="D116" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E116" s="68">
+      <c r="D116" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E116" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8820,10 +8994,10 @@
       <c r="C117" s="57" t="s">
         <v>582</v>
       </c>
-      <c r="D117" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E117" s="68">
+      <c r="D117" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E117" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8837,10 +9011,10 @@
       <c r="C118" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="D118" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E118" s="68">
+      <c r="D118" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E118" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8854,10 +9028,10 @@
       <c r="C119" s="57" t="s">
         <v>652</v>
       </c>
-      <c r="D119" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E119" s="68">
+      <c r="D119" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E119" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8871,10 +9045,10 @@
       <c r="C120" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D120" s="60">
+      <c r="D120" s="59">
         <v>0.18</v>
       </c>
-      <c r="E120" s="68">
+      <c r="E120" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8888,10 +9062,10 @@
       <c r="C121" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D121" s="60">
+      <c r="D121" s="59">
         <v>0.18</v>
       </c>
-      <c r="E121" s="68">
+      <c r="E121" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8905,10 +9079,10 @@
       <c r="C122" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="D122" s="60">
+      <c r="D122" s="59">
         <v>0.18</v>
       </c>
-      <c r="E122" s="68">
+      <c r="E122" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8922,10 +9096,10 @@
       <c r="C123" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="D123" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E123" s="68">
+      <c r="D123" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E123" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8939,10 +9113,10 @@
       <c r="C124" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D124" s="60">
+      <c r="D124" s="59">
         <v>0.18</v>
       </c>
-      <c r="E124" s="68">
+      <c r="E124" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8956,10 +9130,10 @@
       <c r="C125" s="57" t="s">
         <v>472</v>
       </c>
-      <c r="D125" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E125" s="68">
+      <c r="D125" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E125" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -8973,10 +9147,10 @@
       <c r="C126" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="D126" s="60">
+      <c r="D126" s="59">
         <v>0.18</v>
       </c>
-      <c r="E126" s="68">
+      <c r="E126" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -8990,10 +9164,10 @@
       <c r="C127" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D127" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E127" s="68">
+      <c r="D127" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E127" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9007,10 +9181,10 @@
       <c r="C128" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D128" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E128" s="68">
+      <c r="D128" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E128" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9024,10 +9198,10 @@
       <c r="C129" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="D129" s="60">
+      <c r="D129" s="59">
         <v>0.18</v>
       </c>
-      <c r="E129" s="68">
+      <c r="E129" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9041,10 +9215,10 @@
       <c r="C130" s="57" t="s">
         <v>583</v>
       </c>
-      <c r="D130" s="60">
+      <c r="D130" s="59">
         <v>0.18</v>
       </c>
-      <c r="E130" s="68">
+      <c r="E130" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9058,10 +9232,10 @@
       <c r="C131" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D131" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E131" s="68">
+      <c r="D131" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E131" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9075,10 +9249,10 @@
       <c r="C132" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="D132" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E132" s="68">
+      <c r="D132" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E132" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9092,10 +9266,10 @@
       <c r="C133" s="57" t="s">
         <v>465</v>
       </c>
-      <c r="D133" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E133" s="68">
+      <c r="D133" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E133" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9109,10 +9283,10 @@
       <c r="C134" s="57" t="s">
         <v>466</v>
       </c>
-      <c r="D134" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E134" s="68">
+      <c r="D134" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E134" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9126,10 +9300,10 @@
       <c r="C135" s="58" t="s">
         <v>584</v>
       </c>
-      <c r="D135" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E135" s="68">
+      <c r="D135" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E135" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9143,10 +9317,10 @@
       <c r="C136" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="D136" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E136" s="68">
+      <c r="D136" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E136" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9160,10 +9334,10 @@
       <c r="C137" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="D137" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E137" s="68">
+      <c r="D137" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E137" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9177,10 +9351,10 @@
       <c r="C138" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="D138" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E138" s="68">
+      <c r="D138" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E138" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -9194,10 +9368,10 @@
       <c r="C139" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="D139" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E139" s="68">
+      <c r="D139" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E139" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9211,10 +9385,10 @@
       <c r="C140" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="D140" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E140" s="68">
+      <c r="D140" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E140" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9228,10 +9402,10 @@
       <c r="C141" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="D141" s="60">
+      <c r="D141" s="59">
         <v>0.18</v>
       </c>
-      <c r="E141" s="68">
+      <c r="E141" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9245,10 +9419,10 @@
       <c r="C142" s="57" t="s">
         <v>421</v>
       </c>
-      <c r="D142" s="60">
+      <c r="D142" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E142" s="68">
+      <c r="E142" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -9262,10 +9436,10 @@
       <c r="C143" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="D143" s="60">
+      <c r="D143" s="59">
         <v>0.18</v>
       </c>
-      <c r="E143" s="68">
+      <c r="E143" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9279,10 +9453,10 @@
       <c r="C144" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D144" s="60">
+      <c r="D144" s="59">
         <v>0.18</v>
       </c>
-      <c r="E144" s="68">
+      <c r="E144" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9296,10 +9470,10 @@
       <c r="C145" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D145" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E145" s="68">
+      <c r="D145" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E145" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9313,10 +9487,10 @@
       <c r="C146" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D146" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E146" s="68">
+      <c r="D146" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E146" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9330,10 +9504,10 @@
       <c r="C147" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="D147" s="60">
-        <v>0.05</v>
-      </c>
-      <c r="E147" s="69" t="s">
+      <c r="D147" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="E147" s="68" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9347,10 +9521,10 @@
       <c r="C148" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D148" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E148" s="68">
+      <c r="D148" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E148" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9364,10 +9538,10 @@
       <c r="C149" s="57" t="s">
         <v>585</v>
       </c>
-      <c r="D149" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E149" s="68">
+      <c r="D149" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E149" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9381,10 +9555,10 @@
       <c r="C150" s="57" t="s">
         <v>586</v>
       </c>
-      <c r="D150" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E150" s="68">
+      <c r="D150" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E150" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9398,10 +9572,10 @@
       <c r="C151" s="58" t="s">
         <v>587</v>
       </c>
-      <c r="D151" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E151" s="68">
+      <c r="D151" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E151" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9415,10 +9589,10 @@
       <c r="C152" s="57" t="s">
         <v>454</v>
       </c>
-      <c r="D152" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E152" s="68">
+      <c r="D152" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E152" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9432,10 +9606,10 @@
       <c r="C153" s="57" t="s">
         <v>450</v>
       </c>
-      <c r="D153" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E153" s="68">
+      <c r="D153" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E153" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9449,10 +9623,10 @@
       <c r="C154" s="57" t="s">
         <v>589</v>
       </c>
-      <c r="D154" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E154" s="68">
+      <c r="D154" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E154" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9466,10 +9640,10 @@
       <c r="C155" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D155" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E155" s="68">
+      <c r="D155" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E155" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9483,10 +9657,10 @@
       <c r="C156" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D156" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E156" s="68">
+      <c r="D156" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E156" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9500,10 +9674,10 @@
       <c r="C157" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D157" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E157" s="68">
+      <c r="D157" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E157" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9517,10 +9691,10 @@
       <c r="C158" s="57" t="s">
         <v>526</v>
       </c>
-      <c r="D158" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E158" s="68">
+      <c r="D158" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E158" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9534,10 +9708,10 @@
       <c r="C159" s="57" t="s">
         <v>590</v>
       </c>
-      <c r="D159" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E159" s="68">
+      <c r="D159" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E159" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9551,10 +9725,10 @@
       <c r="C160" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="D160" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E160" s="68">
+      <c r="D160" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E160" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9568,10 +9742,10 @@
       <c r="C161" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="D161" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E161" s="68">
+      <c r="D161" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E161" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9585,10 +9759,10 @@
       <c r="C162" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D162" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E162" s="68">
+      <c r="D162" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E162" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9602,10 +9776,10 @@
       <c r="C163" s="57" t="s">
         <v>444</v>
       </c>
-      <c r="D163" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E163" s="68">
+      <c r="D163" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E163" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9619,10 +9793,10 @@
       <c r="C164" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="D164" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E164" s="68">
+      <c r="D164" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E164" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9636,10 +9810,10 @@
       <c r="C165" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="D165" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E165" s="68">
+      <c r="D165" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E165" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9653,10 +9827,10 @@
       <c r="C166" s="57" t="s">
         <v>445</v>
       </c>
-      <c r="D166" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E166" s="68">
+      <c r="D166" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E166" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9670,10 +9844,10 @@
       <c r="C167" s="57" t="s">
         <v>592</v>
       </c>
-      <c r="D167" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E167" s="68">
+      <c r="D167" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E167" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9687,10 +9861,10 @@
       <c r="C168" s="57" t="s">
         <v>446</v>
       </c>
-      <c r="D168" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E168" s="68">
+      <c r="D168" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E168" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9704,10 +9878,10 @@
       <c r="C169" s="57" t="s">
         <v>447</v>
       </c>
-      <c r="D169" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E169" s="68">
+      <c r="D169" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E169" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9721,10 +9895,10 @@
       <c r="C170" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="D170" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E170" s="68">
+      <c r="D170" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E170" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9738,10 +9912,10 @@
       <c r="C171" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="D171" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E171" s="68">
+      <c r="D171" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E171" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9755,10 +9929,10 @@
       <c r="C172" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="D172" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E172" s="68">
+      <c r="D172" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E172" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9772,10 +9946,10 @@
       <c r="C173" s="57" t="s">
         <v>593</v>
       </c>
-      <c r="D173" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E173" s="68">
+      <c r="D173" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E173" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9789,10 +9963,10 @@
       <c r="C174" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="D174" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E174" s="68">
+      <c r="D174" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E174" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9806,10 +9980,10 @@
       <c r="C175" s="57" t="s">
         <v>449</v>
       </c>
-      <c r="D175" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E175" s="68">
+      <c r="D175" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E175" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9823,10 +9997,10 @@
       <c r="C176" s="57" t="s">
         <v>456</v>
       </c>
-      <c r="D176" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E176" s="68">
+      <c r="D176" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E176" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9840,10 +10014,10 @@
       <c r="C177" s="57" t="s">
         <v>594</v>
       </c>
-      <c r="D177" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E177" s="68">
+      <c r="D177" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E177" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9857,10 +10031,10 @@
       <c r="C178" s="57" t="s">
         <v>441</v>
       </c>
-      <c r="D178" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E178" s="68">
+      <c r="D178" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E178" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9874,10 +10048,10 @@
       <c r="C179" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="D179" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E179" s="68">
+      <c r="D179" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E179" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9891,10 +10065,10 @@
       <c r="C180" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="D180" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E180" s="68">
+      <c r="D180" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E180" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -9908,10 +10082,10 @@
       <c r="C181" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="D181" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E181" s="68">
+      <c r="D181" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E181" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9925,10 +10099,10 @@
       <c r="C182" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D182" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E182" s="68">
+      <c r="D182" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E182" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9942,10 +10116,10 @@
       <c r="C183" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="D183" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E183" s="68">
+      <c r="D183" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E183" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9959,10 +10133,10 @@
       <c r="C184" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="D184" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E184" s="68">
+      <c r="D184" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E184" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -9976,10 +10150,10 @@
       <c r="C185" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="D185" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E185" s="69" t="s">
+      <c r="D185" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E185" s="68" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9993,10 +10167,10 @@
       <c r="C186" s="57" t="s">
         <v>595</v>
       </c>
-      <c r="D186" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E186" s="68">
+      <c r="D186" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E186" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -10010,10 +10184,10 @@
       <c r="C187" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="D187" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E187" s="68">
+      <c r="D187" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E187" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10027,10 +10201,10 @@
       <c r="C188" s="57" t="s">
         <v>417</v>
       </c>
-      <c r="D188" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E188" s="68">
+      <c r="D188" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E188" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -10044,10 +10218,10 @@
       <c r="C189" s="57" t="s">
         <v>655</v>
       </c>
-      <c r="D189" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E189" s="68">
+      <c r="D189" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E189" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -10061,10 +10235,10 @@
       <c r="C190" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="D190" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E190" s="68">
+      <c r="D190" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E190" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -10078,10 +10252,10 @@
       <c r="C191" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="D191" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E191" s="68">
+      <c r="D191" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E191" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -10095,10 +10269,10 @@
       <c r="C192" s="57" t="s">
         <v>418</v>
       </c>
-      <c r="D192" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E192" s="68">
+      <c r="D192" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E192" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -10112,10 +10286,10 @@
       <c r="C193" s="58" t="s">
         <v>419</v>
       </c>
-      <c r="D193" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E193" s="68">
+      <c r="D193" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E193" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -10129,10 +10303,10 @@
       <c r="C194" s="57" t="s">
         <v>420</v>
       </c>
-      <c r="D194" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E194" s="68">
+      <c r="D194" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E194" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -10146,10 +10320,10 @@
       <c r="C195" s="57" t="s">
         <v>412</v>
       </c>
-      <c r="D195" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E195" s="68">
+      <c r="D195" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E195" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10163,10 +10337,10 @@
       <c r="C196" s="57" t="s">
         <v>596</v>
       </c>
-      <c r="D196" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E196" s="68">
+      <c r="D196" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E196" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10180,10 +10354,10 @@
       <c r="C197" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="D197" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E197" s="69" t="s">
+      <c r="D197" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E197" s="68" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10197,10 +10371,10 @@
       <c r="C198" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="D198" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E198" s="68">
+      <c r="D198" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E198" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10214,10 +10388,10 @@
       <c r="C199" s="57" t="s">
         <v>415</v>
       </c>
-      <c r="D199" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E199" s="68">
+      <c r="D199" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E199" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10231,10 +10405,10 @@
       <c r="C200" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="D200" s="60">
+      <c r="D200" s="59">
         <v>0.18</v>
       </c>
-      <c r="E200" s="68">
+      <c r="E200" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10248,10 +10422,10 @@
       <c r="C201" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="D201" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E201" s="69" t="s">
+      <c r="D201" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E201" s="68" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10265,10 +10439,10 @@
       <c r="C202" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D202" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E202" s="68">
+      <c r="D202" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E202" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10282,10 +10456,10 @@
       <c r="C203" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="D203" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E203" s="68">
+      <c r="D203" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E203" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10299,10 +10473,10 @@
       <c r="C204" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D204" s="60">
+      <c r="D204" s="59">
         <v>0.18</v>
       </c>
-      <c r="E204" s="68">
+      <c r="E204" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10316,10 +10490,10 @@
       <c r="C205" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D205" s="60">
+      <c r="D205" s="59">
         <v>0.18</v>
       </c>
-      <c r="E205" s="68">
+      <c r="E205" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10333,10 +10507,10 @@
       <c r="C206" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="D206" s="60">
+      <c r="D206" s="59">
         <v>0.18</v>
       </c>
-      <c r="E206" s="68">
+      <c r="E206" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10350,10 +10524,10 @@
       <c r="C207" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="D207" s="60">
+      <c r="D207" s="59">
         <v>0.18</v>
       </c>
-      <c r="E207" s="68">
+      <c r="E207" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10367,10 +10541,10 @@
       <c r="C208" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="D208" s="60">
+      <c r="D208" s="59">
         <v>0.18</v>
       </c>
-      <c r="E208" s="68">
+      <c r="E208" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10384,10 +10558,10 @@
       <c r="C209" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="D209" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E209" s="68">
+      <c r="D209" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E209" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10401,10 +10575,10 @@
       <c r="C210" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D210" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E210" s="68">
+      <c r="D210" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E210" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10418,10 +10592,10 @@
       <c r="C211" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="D211" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E211" s="68">
+      <c r="D211" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E211" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10435,10 +10609,10 @@
       <c r="C212" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="D212" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E212" s="68">
+      <c r="D212" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E212" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10452,10 +10626,10 @@
       <c r="C213" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="D213" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E213" s="68">
+      <c r="D213" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E213" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10469,10 +10643,10 @@
       <c r="C214" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="D214" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E214" s="68">
+      <c r="D214" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E214" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10486,10 +10660,10 @@
       <c r="C215" s="57" t="s">
         <v>597</v>
       </c>
-      <c r="D215" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E215" s="68">
+      <c r="D215" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E215" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10503,10 +10677,10 @@
       <c r="C216" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="D216" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E216" s="68">
+      <c r="D216" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E216" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10520,10 +10694,10 @@
       <c r="C217" s="57" t="s">
         <v>598</v>
       </c>
-      <c r="D217" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E217" s="68">
+      <c r="D217" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E217" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10537,10 +10711,10 @@
       <c r="C218" s="57" t="s">
         <v>599</v>
       </c>
-      <c r="D218" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E218" s="68">
+      <c r="D218" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E218" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10554,10 +10728,10 @@
       <c r="C219" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="D219" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E219" s="68">
+      <c r="D219" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E219" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10571,10 +10745,10 @@
       <c r="C220" s="57" t="s">
         <v>600</v>
       </c>
-      <c r="D220" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E220" s="68">
+      <c r="D220" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E220" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10588,10 +10762,10 @@
       <c r="C221" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="D221" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E221" s="68">
+      <c r="D221" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E221" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10605,10 +10779,10 @@
       <c r="C222" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="D222" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E222" s="68">
+      <c r="D222" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E222" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10622,10 +10796,10 @@
       <c r="C223" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="D223" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E223" s="68">
+      <c r="D223" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E223" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10639,10 +10813,10 @@
       <c r="C224" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="D224" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E224" s="68">
+      <c r="D224" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E224" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10656,10 +10830,10 @@
       <c r="C225" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="D225" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E225" s="68">
+      <c r="D225" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E225" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10673,10 +10847,10 @@
       <c r="C226" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="D226" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E226" s="68">
+      <c r="D226" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E226" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10690,10 +10864,10 @@
       <c r="C227" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="D227" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E227" s="68">
+      <c r="D227" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E227" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10707,10 +10881,10 @@
       <c r="C228" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="D228" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E228" s="68">
+      <c r="D228" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E228" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10724,10 +10898,10 @@
       <c r="C229" s="57" t="s">
         <v>601</v>
       </c>
-      <c r="D229" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E229" s="68">
+      <c r="D229" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E229" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10741,10 +10915,10 @@
       <c r="C230" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="D230" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E230" s="68">
+      <c r="D230" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E230" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10758,10 +10932,10 @@
       <c r="C231" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="D231" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E231" s="68">
+      <c r="D231" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E231" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10775,10 +10949,10 @@
       <c r="C232" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="D232" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E232" s="68">
+      <c r="D232" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E232" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10792,10 +10966,10 @@
       <c r="C233" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="D233" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E233" s="68">
+      <c r="D233" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E233" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10809,10 +10983,10 @@
       <c r="C234" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="D234" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E234" s="68">
+      <c r="D234" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E234" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10826,10 +11000,10 @@
       <c r="C235" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="D235" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E235" s="68">
+      <c r="D235" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E235" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10843,10 +11017,10 @@
       <c r="C236" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="D236" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E236" s="68">
+      <c r="D236" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E236" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10860,10 +11034,10 @@
       <c r="C237" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D237" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E237" s="68">
+      <c r="D237" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E237" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10877,10 +11051,10 @@
       <c r="C238" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="D238" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E238" s="68">
+      <c r="D238" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E238" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10894,10 +11068,10 @@
       <c r="C239" s="57" t="s">
         <v>602</v>
       </c>
-      <c r="D239" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E239" s="68">
+      <c r="D239" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E239" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10911,10 +11085,10 @@
       <c r="C240" s="57" t="s">
         <v>308</v>
       </c>
-      <c r="D240" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E240" s="68">
+      <c r="D240" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E240" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10928,10 +11102,10 @@
       <c r="C241" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="D241" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E241" s="68">
+      <c r="D241" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E241" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10945,10 +11119,10 @@
       <c r="C242" s="57" t="s">
         <v>603</v>
       </c>
-      <c r="D242" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E242" s="68">
+      <c r="D242" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E242" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10962,10 +11136,10 @@
       <c r="C243" s="57" t="s">
         <v>660</v>
       </c>
-      <c r="D243" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E243" s="68">
+      <c r="D243" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E243" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10979,10 +11153,10 @@
       <c r="C244" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="D244" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E244" s="68">
+      <c r="D244" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E244" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -10996,10 +11170,10 @@
       <c r="C245" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="D245" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E245" s="68">
+      <c r="D245" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E245" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -11013,10 +11187,10 @@
       <c r="C246" s="57" t="s">
         <v>316</v>
       </c>
-      <c r="D246" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E246" s="68">
+      <c r="D246" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E246" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -11030,10 +11204,10 @@
       <c r="C247" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="D247" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E247" s="68">
+      <c r="D247" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E247" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -11047,10 +11221,10 @@
       <c r="C248" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D248" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E248" s="68">
+      <c r="D248" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E248" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11064,10 +11238,10 @@
       <c r="C249" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="D249" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E249" s="68">
+      <c r="D249" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E249" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11081,10 +11255,10 @@
       <c r="C250" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="D250" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E250" s="68">
+      <c r="D250" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E250" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11098,10 +11272,10 @@
       <c r="C251" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="D251" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E251" s="68">
+      <c r="D251" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E251" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11115,10 +11289,10 @@
       <c r="C252" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="D252" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E252" s="68">
+      <c r="D252" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E252" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11132,10 +11306,10 @@
       <c r="C253" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="D253" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E253" s="68">
+      <c r="D253" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E253" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11149,10 +11323,10 @@
       <c r="C254" s="57" t="s">
         <v>451</v>
       </c>
-      <c r="D254" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E254" s="68">
+      <c r="D254" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E254" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11166,10 +11340,10 @@
       <c r="C255" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="D255" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E255" s="68">
+      <c r="D255" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E255" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11183,10 +11357,10 @@
       <c r="C256" s="57" t="s">
         <v>604</v>
       </c>
-      <c r="D256" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E256" s="68">
+      <c r="D256" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E256" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11200,10 +11374,10 @@
       <c r="C257" s="57" t="s">
         <v>605</v>
       </c>
-      <c r="D257" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E257" s="68">
+      <c r="D257" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E257" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11217,10 +11391,10 @@
       <c r="C258" s="57" t="s">
         <v>606</v>
       </c>
-      <c r="D258" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E258" s="68">
+      <c r="D258" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E258" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11234,10 +11408,10 @@
       <c r="C259" s="57" t="s">
         <v>467</v>
       </c>
-      <c r="D259" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E259" s="68">
+      <c r="D259" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E259" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11251,10 +11425,10 @@
       <c r="C260" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="D260" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E260" s="68">
+      <c r="D260" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E260" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11268,10 +11442,10 @@
       <c r="C261" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="D261" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E261" s="68">
+      <c r="D261" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E261" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11285,10 +11459,10 @@
       <c r="C262" s="57" t="s">
         <v>607</v>
       </c>
-      <c r="D262" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E262" s="68">
+      <c r="D262" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E262" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11302,10 +11476,10 @@
       <c r="C263" s="57" t="s">
         <v>608</v>
       </c>
-      <c r="D263" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E263" s="68">
+      <c r="D263" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E263" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11319,10 +11493,10 @@
       <c r="C264" s="57" t="s">
         <v>609</v>
       </c>
-      <c r="D264" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E264" s="68">
+      <c r="D264" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E264" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11336,10 +11510,10 @@
       <c r="C265" s="57" t="s">
         <v>610</v>
       </c>
-      <c r="D265" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E265" s="68">
+      <c r="D265" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E265" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11353,10 +11527,10 @@
       <c r="C266" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="D266" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E266" s="68">
+      <c r="D266" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E266" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11370,10 +11544,10 @@
       <c r="C267" s="57" t="s">
         <v>611</v>
       </c>
-      <c r="D267" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E267" s="68">
+      <c r="D267" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E267" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11387,10 +11561,10 @@
       <c r="C268" s="57" t="s">
         <v>612</v>
       </c>
-      <c r="D268" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E268" s="68">
+      <c r="D268" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E268" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11404,10 +11578,10 @@
       <c r="C269" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="D269" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E269" s="68">
+      <c r="D269" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E269" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11421,10 +11595,10 @@
       <c r="C270" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="D270" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E270" s="68">
+      <c r="D270" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E270" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11438,10 +11612,10 @@
       <c r="C271" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="D271" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E271" s="68">
+      <c r="D271" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E271" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11455,10 +11629,10 @@
       <c r="C272" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="D272" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E272" s="68">
+      <c r="D272" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E272" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11472,10 +11646,10 @@
       <c r="C273" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="D273" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E273" s="68">
+      <c r="D273" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E273" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11489,10 +11663,10 @@
       <c r="C274" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="D274" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E274" s="68">
+      <c r="D274" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E274" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11506,10 +11680,10 @@
       <c r="C275" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="D275" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E275" s="68">
+      <c r="D275" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E275" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11523,10 +11697,10 @@
       <c r="C276" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="D276" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E276" s="68">
+      <c r="D276" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E276" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11540,10 +11714,10 @@
       <c r="C277" s="57" t="s">
         <v>615</v>
       </c>
-      <c r="D277" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E277" s="68">
+      <c r="D277" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E277" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11557,10 +11731,10 @@
       <c r="C278" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="D278" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E278" s="68">
+      <c r="D278" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E278" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11574,10 +11748,10 @@
       <c r="C279" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="D279" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E279" s="68">
+      <c r="D279" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E279" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11591,10 +11765,10 @@
       <c r="C280" s="57" t="s">
         <v>617</v>
       </c>
-      <c r="D280" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E280" s="68">
+      <c r="D280" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E280" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11608,10 +11782,10 @@
       <c r="C281" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="D281" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E281" s="68">
+      <c r="D281" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E281" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11625,10 +11799,10 @@
       <c r="C282" s="57" t="s">
         <v>616</v>
       </c>
-      <c r="D282" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E282" s="68">
+      <c r="D282" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E282" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11642,10 +11816,10 @@
       <c r="C283" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D283" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E283" s="69" t="s">
+      <c r="D283" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E283" s="68" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11659,10 +11833,10 @@
       <c r="C284" s="57" t="s">
         <v>618</v>
       </c>
-      <c r="D284" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E284" s="68">
+      <c r="D284" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E284" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11676,10 +11850,10 @@
       <c r="C285" s="57" t="s">
         <v>619</v>
       </c>
-      <c r="D285" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E285" s="68">
+      <c r="D285" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E285" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11693,10 +11867,10 @@
       <c r="C286" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="D286" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E286" s="68">
+      <c r="D286" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E286" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11710,10 +11884,10 @@
       <c r="C287" s="57" t="s">
         <v>481</v>
       </c>
-      <c r="D287" s="60">
+      <c r="D287" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E287" s="68">
+      <c r="E287" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -11727,10 +11901,10 @@
       <c r="C288" s="57" t="s">
         <v>482</v>
       </c>
-      <c r="D288" s="60">
+      <c r="D288" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E288" s="68">
+      <c r="E288" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -11744,10 +11918,10 @@
       <c r="C289" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="D289" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E289" s="68">
+      <c r="D289" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E289" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11758,13 +11932,13 @@
       <c r="B290" s="5">
         <v>84082020</v>
       </c>
-      <c r="C290" s="59" t="s">
+      <c r="C290" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D290" s="60">
+      <c r="D290" s="59">
         <v>0.18</v>
       </c>
-      <c r="E290" s="68">
+      <c r="E290" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11775,13 +11949,13 @@
       <c r="B291" s="5">
         <v>8409</v>
       </c>
-      <c r="C291" s="59" t="s">
+      <c r="C291" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D291" s="60">
+      <c r="D291" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E291" s="68">
+      <c r="E291" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -11792,13 +11966,13 @@
       <c r="B292" s="5">
         <v>8413</v>
       </c>
-      <c r="C292" s="59" t="s">
+      <c r="C292" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="D292" s="60">
+      <c r="D292" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E292" s="68">
+      <c r="E292" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -11809,13 +11983,13 @@
       <c r="B293" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C293" s="59" t="s">
+      <c r="C293" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D293" s="60">
+      <c r="D293" s="59">
         <v>0.18</v>
       </c>
-      <c r="E293" s="68">
+      <c r="E293" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11829,10 +12003,10 @@
       <c r="C294" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="D294" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E294" s="68">
+      <c r="D294" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E294" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11846,10 +12020,10 @@
       <c r="C295" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="D295" s="60">
+      <c r="D295" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E295" s="68">
+      <c r="E295" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -11863,10 +12037,10 @@
       <c r="C296" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="D296" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E296" s="68">
+      <c r="D296" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E296" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11877,13 +12051,13 @@
       <c r="B297" s="5">
         <v>8420</v>
       </c>
-      <c r="C297" s="59" t="s">
+      <c r="C297" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D297" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E297" s="68">
+      <c r="D297" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E297" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11897,10 +12071,10 @@
       <c r="C298" s="57" t="s">
         <v>620</v>
       </c>
-      <c r="D298" s="60">
+      <c r="D298" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E298" s="68">
+      <c r="E298" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -11914,10 +12088,10 @@
       <c r="C299" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="D299" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E299" s="68">
+      <c r="D299" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E299" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11931,10 +12105,10 @@
       <c r="C300" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="D300" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E300" s="68">
+      <c r="D300" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E300" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11948,10 +12122,10 @@
       <c r="C301" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="D301" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E301" s="68">
+      <c r="D301" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E301" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11965,10 +12139,10 @@
       <c r="C302" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="D302" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E302" s="68">
+      <c r="D302" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E302" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11982,10 +12156,10 @@
       <c r="C303" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="D303" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E303" s="68">
+      <c r="D303" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E303" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -11999,10 +12173,10 @@
       <c r="C304" s="57" t="s">
         <v>622</v>
       </c>
-      <c r="D304" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E304" s="68">
+      <c r="D304" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E304" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12016,10 +12190,10 @@
       <c r="C305" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="D305" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E305" s="68">
+      <c r="D305" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E305" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12033,10 +12207,10 @@
       <c r="C306" s="57" t="s">
         <v>485</v>
       </c>
-      <c r="D306" s="60">
+      <c r="D306" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E306" s="68">
+      <c r="E306" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12050,10 +12224,10 @@
       <c r="C307" s="57" t="s">
         <v>623</v>
       </c>
-      <c r="D307" s="60">
+      <c r="D307" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E307" s="68">
+      <c r="E307" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12067,10 +12241,10 @@
       <c r="C308" s="57" t="s">
         <v>458</v>
       </c>
-      <c r="D308" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E308" s="68">
+      <c r="D308" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E308" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12084,10 +12258,10 @@
       <c r="C309" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="D309" s="60">
+      <c r="D309" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E309" s="68">
+      <c r="E309" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12101,10 +12275,10 @@
       <c r="C310" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="D310" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E310" s="68">
+      <c r="D310" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E310" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12118,10 +12292,10 @@
       <c r="C311" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="D311" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E311" s="68">
+      <c r="D311" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E311" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12135,10 +12309,10 @@
       <c r="C312" s="57" t="s">
         <v>422</v>
       </c>
-      <c r="D312" s="60">
+      <c r="D312" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E312" s="68">
+      <c r="E312" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12152,10 +12326,10 @@
       <c r="C313" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="D313" s="60">
+      <c r="D313" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E313" s="68">
+      <c r="E313" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12169,10 +12343,10 @@
       <c r="C314" s="57" t="s">
         <v>625</v>
       </c>
-      <c r="D314" s="60">
+      <c r="D314" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E314" s="68">
+      <c r="E314" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -12186,10 +12360,10 @@
       <c r="C315" s="57" t="s">
         <v>424</v>
       </c>
-      <c r="D315" s="60">
+      <c r="D315" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E315" s="68">
+      <c r="E315" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12203,10 +12377,10 @@
       <c r="C316" s="57" t="s">
         <v>425</v>
       </c>
-      <c r="D316" s="60">
+      <c r="D316" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E316" s="68">
+      <c r="E316" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12220,10 +12394,10 @@
       <c r="C317" s="57" t="s">
         <v>426</v>
       </c>
-      <c r="D317" s="60">
+      <c r="D317" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E317" s="68">
+      <c r="E317" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12237,10 +12411,10 @@
       <c r="C318" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D318" s="60">
+      <c r="D318" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E318" s="68">
+      <c r="E318" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12254,10 +12428,10 @@
       <c r="C319" s="58" t="s">
         <v>427</v>
       </c>
-      <c r="D319" s="60">
+      <c r="D319" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E319" s="68">
+      <c r="E319" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12271,10 +12445,10 @@
       <c r="C320" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="D320" s="60">
+      <c r="D320" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E320" s="68">
+      <c r="E320" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -12288,10 +12462,10 @@
       <c r="C321" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="D321" s="60">
+      <c r="D321" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E321" s="68">
+      <c r="E321" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12305,10 +12479,10 @@
       <c r="C322" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="D322" s="60">
+      <c r="D322" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E322" s="68">
+      <c r="E322" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -12322,10 +12496,10 @@
       <c r="C323" s="57" t="s">
         <v>626</v>
       </c>
-      <c r="D323" s="60">
+      <c r="D323" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E323" s="68">
+      <c r="E323" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12339,10 +12513,10 @@
       <c r="C324" s="57" t="s">
         <v>430</v>
       </c>
-      <c r="D324" s="60">
+      <c r="D324" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E324" s="68">
+      <c r="E324" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12356,10 +12530,10 @@
       <c r="C325" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="D325" s="60">
+      <c r="D325" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E325" s="68">
+      <c r="E325" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12373,10 +12547,10 @@
       <c r="C326" s="57" t="s">
         <v>432</v>
       </c>
-      <c r="D326" s="60">
+      <c r="D326" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E326" s="68">
+      <c r="E326" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12390,10 +12564,10 @@
       <c r="C327" s="57" t="s">
         <v>627</v>
       </c>
-      <c r="D327" s="60">
+      <c r="D327" s="59">
         <v>0.18</v>
       </c>
-      <c r="E327" s="68">
+      <c r="E327" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12407,10 +12581,10 @@
       <c r="C328" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="D328" s="60">
+      <c r="D328" s="59">
         <v>0.18</v>
       </c>
-      <c r="E328" s="68">
+      <c r="E328" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12424,10 +12598,10 @@
       <c r="C329" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="D329" s="60">
+      <c r="D329" s="59">
         <v>0.18</v>
       </c>
-      <c r="E329" s="68">
+      <c r="E329" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12441,10 +12615,10 @@
       <c r="C330" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="D330" s="60">
+      <c r="D330" s="59">
         <v>0.18</v>
       </c>
-      <c r="E330" s="68">
+      <c r="E330" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12458,10 +12632,10 @@
       <c r="C331" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="D331" s="60">
+      <c r="D331" s="59">
         <v>0.18</v>
       </c>
-      <c r="E331" s="68">
+      <c r="E331" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12475,10 +12649,10 @@
       <c r="C332" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="D332" s="60">
+      <c r="D332" s="59">
         <v>0.18</v>
       </c>
-      <c r="E332" s="68">
+      <c r="E332" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12489,13 +12663,13 @@
       <c r="B333" s="5">
         <v>87089100</v>
       </c>
-      <c r="C333" s="59" t="s">
+      <c r="C333" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="D333" s="60">
+      <c r="D333" s="59">
         <v>0.18</v>
       </c>
-      <c r="E333" s="68">
+      <c r="E333" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12509,10 +12683,10 @@
       <c r="C334" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="D334" s="60">
+      <c r="D334" s="59">
         <v>0.18</v>
       </c>
-      <c r="E334" s="68">
+      <c r="E334" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12526,10 +12700,10 @@
       <c r="C335" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="D335" s="60">
+      <c r="D335" s="59">
         <v>0.18</v>
       </c>
-      <c r="E335" s="68">
+      <c r="E335" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12543,10 +12717,10 @@
       <c r="C336" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="D336" s="60">
+      <c r="D336" s="59">
         <v>0.18</v>
       </c>
-      <c r="E336" s="68">
+      <c r="E336" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12560,10 +12734,10 @@
       <c r="C337" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="D337" s="60">
+      <c r="D337" s="59">
         <v>0.18</v>
       </c>
-      <c r="E337" s="68">
+      <c r="E337" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12574,13 +12748,13 @@
       <c r="B338" s="5">
         <v>87089900</v>
       </c>
-      <c r="C338" s="59" t="s">
+      <c r="C338" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="D338" s="60">
+      <c r="D338" s="59">
         <v>0.18</v>
       </c>
-      <c r="E338" s="68">
+      <c r="E338" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12591,13 +12765,13 @@
       <c r="B339" s="5">
         <v>8710</v>
       </c>
-      <c r="C339" s="59" t="s">
+      <c r="C339" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="D339" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E339" s="68">
+      <c r="D339" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E339" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12608,13 +12782,13 @@
       <c r="B340" s="5">
         <v>8711</v>
       </c>
-      <c r="C340" s="59" t="s">
+      <c r="C340" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="D340" s="60">
+      <c r="D340" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E340" s="68">
+      <c r="E340" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12625,13 +12799,13 @@
       <c r="B341" s="5">
         <v>8711</v>
       </c>
-      <c r="C341" s="59" t="s">
+      <c r="C341" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D341" s="60">
+      <c r="D341" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E341" s="68">
+      <c r="E341" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -12642,13 +12816,13 @@
       <c r="B342" s="5">
         <v>8712</v>
       </c>
-      <c r="C342" s="59" t="s">
+      <c r="C342" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="D342" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E342" s="68">
+      <c r="D342" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E342" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12659,13 +12833,13 @@
       <c r="B343" s="5">
         <v>8714</v>
       </c>
-      <c r="C343" s="59" t="s">
+      <c r="C343" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D343" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E343" s="68">
+      <c r="D343" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E343" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12676,13 +12850,13 @@
       <c r="B344" s="5">
         <v>8714</v>
       </c>
-      <c r="C344" s="59" t="s">
+      <c r="C344" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D344" s="60">
+      <c r="D344" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E344" s="68">
+      <c r="E344" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12696,10 +12870,10 @@
       <c r="C345" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="D345" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E345" s="68">
+      <c r="D345" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E345" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12713,10 +12887,10 @@
       <c r="C346" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="D346" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E346" s="68">
+      <c r="D346" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E346" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12730,10 +12904,10 @@
       <c r="C347" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="D347" s="60">
+      <c r="D347" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E347" s="68">
+      <c r="E347" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -12747,10 +12921,10 @@
       <c r="C348" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="D348" s="61" t="s">
+      <c r="D348" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="E348" s="68">
+      <c r="E348" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12764,10 +12938,10 @@
       <c r="C349" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="D349" s="60">
+      <c r="D349" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E349" s="68">
+      <c r="E349" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -12781,10 +12955,10 @@
       <c r="C350" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="D350" s="60">
+      <c r="D350" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E350" s="68">
+      <c r="E350" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -12798,10 +12972,10 @@
       <c r="C351" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="D351" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E351" s="68">
+      <c r="D351" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E351" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12815,10 +12989,10 @@
       <c r="C352" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="D352" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E352" s="68">
+      <c r="D352" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E352" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12832,10 +13006,10 @@
       <c r="C353" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="D353" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E353" s="68">
+      <c r="D353" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E353" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12849,10 +13023,10 @@
       <c r="C354" s="57" t="s">
         <v>471</v>
       </c>
-      <c r="D354" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E354" s="68">
+      <c r="D354" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E354" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12866,10 +13040,10 @@
       <c r="C355" s="57" t="s">
         <v>632</v>
       </c>
-      <c r="D355" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E355" s="68">
+      <c r="D355" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E355" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12883,10 +13057,10 @@
       <c r="C356" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="D356" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E356" s="68">
+      <c r="D356" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E356" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12900,10 +13074,10 @@
       <c r="C357" s="57" t="s">
         <v>275</v>
       </c>
-      <c r="D357" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E357" s="68">
+      <c r="D357" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E357" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12917,10 +13091,10 @@
       <c r="C358" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="D358" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E358" s="68">
+      <c r="D358" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E358" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12934,10 +13108,10 @@
       <c r="C359" s="57" t="s">
         <v>633</v>
       </c>
-      <c r="D359" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E359" s="68">
+      <c r="D359" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E359" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12951,10 +13125,10 @@
       <c r="C360" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="D360" s="60">
+      <c r="D360" s="59">
         <v>0.18</v>
       </c>
-      <c r="E360" s="68">
+      <c r="E360" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12968,10 +13142,10 @@
       <c r="C361" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D361" s="60">
+      <c r="D361" s="59">
         <v>0.18</v>
       </c>
-      <c r="E361" s="68">
+      <c r="E361" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -12985,10 +13159,10 @@
       <c r="C362" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="D362" s="60">
+      <c r="D362" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E362" s="68">
+      <c r="E362" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -13002,10 +13176,10 @@
       <c r="C363" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="D363" s="60">
+      <c r="D363" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E363" s="68">
+      <c r="E363" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -13019,10 +13193,10 @@
       <c r="C364" s="57" t="s">
         <v>634</v>
       </c>
-      <c r="D364" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E364" s="68">
+      <c r="D364" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E364" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13036,10 +13210,10 @@
       <c r="C365" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="D365" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E365" s="68">
+      <c r="D365" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E365" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13053,10 +13227,10 @@
       <c r="C366" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="D366" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E366" s="68">
+      <c r="D366" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E366" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13070,10 +13244,10 @@
       <c r="C367" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="D367" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E367" s="68">
+      <c r="D367" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E367" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13087,10 +13261,10 @@
       <c r="C368" s="57" t="s">
         <v>635</v>
       </c>
-      <c r="D368" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E368" s="68">
+      <c r="D368" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E368" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -13104,10 +13278,10 @@
       <c r="C369" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="D369" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E369" s="68">
+      <c r="D369" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E369" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -13121,10 +13295,10 @@
       <c r="C370" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="D370" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E370" s="68">
+      <c r="D370" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E370" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13138,10 +13312,10 @@
       <c r="C371" s="57" t="s">
         <v>636</v>
       </c>
-      <c r="D371" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E371" s="68">
+      <c r="D371" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E371" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13155,10 +13329,10 @@
       <c r="C372" s="57" t="s">
         <v>437</v>
       </c>
-      <c r="D372" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E372" s="68">
+      <c r="D372" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E372" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13172,10 +13346,10 @@
       <c r="C373" s="57" t="s">
         <v>637</v>
       </c>
-      <c r="D373" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E373" s="68">
+      <c r="D373" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E373" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13189,10 +13363,10 @@
       <c r="C374" s="57" t="s">
         <v>638</v>
       </c>
-      <c r="D374" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E374" s="68">
+      <c r="D374" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E374" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13206,10 +13380,10 @@
       <c r="C375" s="57" t="s">
         <v>438</v>
       </c>
-      <c r="D375" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E375" s="68">
+      <c r="D375" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E375" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13223,10 +13397,10 @@
       <c r="C376" s="57" t="s">
         <v>439</v>
       </c>
-      <c r="D376" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E376" s="68">
+      <c r="D376" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E376" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13240,10 +13414,10 @@
       <c r="C377" s="57" t="s">
         <v>440</v>
       </c>
-      <c r="D377" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E377" s="68">
+      <c r="D377" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E377" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13257,10 +13431,10 @@
       <c r="C378" s="57" t="s">
         <v>639</v>
       </c>
-      <c r="D378" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E378" s="68">
+      <c r="D378" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E378" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13274,10 +13448,10 @@
       <c r="C379" s="57" t="s">
         <v>640</v>
       </c>
-      <c r="D379" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E379" s="68">
+      <c r="D379" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E379" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13291,10 +13465,10 @@
       <c r="C380" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="D380" s="60">
+      <c r="D380" s="59">
         <v>0.18</v>
       </c>
-      <c r="E380" s="68">
+      <c r="E380" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13308,10 +13482,10 @@
       <c r="C381" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="D381" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E381" s="68">
+      <c r="D381" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E381" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13325,10 +13499,10 @@
       <c r="C382" s="57" t="s">
         <v>641</v>
       </c>
-      <c r="D382" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E382" s="69" t="s">
+      <c r="D382" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E382" s="68" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13342,10 +13516,10 @@
       <c r="C383" s="57" t="s">
         <v>475</v>
       </c>
-      <c r="D383" s="60">
+      <c r="D383" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E383" s="68">
+      <c r="E383" s="67">
         <v>0.4</v>
       </c>
     </row>
@@ -13359,10 +13533,10 @@
       <c r="C384" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="D384" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E384" s="68">
+      <c r="D384" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E384" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13376,10 +13550,10 @@
       <c r="C385" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D385" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E385" s="68">
+      <c r="D385" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E385" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13393,10 +13567,10 @@
       <c r="C386" s="57" t="s">
         <v>643</v>
       </c>
-      <c r="D386" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E386" s="68">
+      <c r="D386" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E386" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13410,10 +13584,10 @@
       <c r="C387" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="D387" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E387" s="68">
+      <c r="D387" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E387" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13427,10 +13601,10 @@
       <c r="C388" s="57" t="s">
         <v>644</v>
       </c>
-      <c r="D388" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E388" s="68">
+      <c r="D388" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E388" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13444,10 +13618,10 @@
       <c r="C389" s="58" t="s">
         <v>645</v>
       </c>
-      <c r="D389" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E389" s="68">
+      <c r="D389" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E389" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13461,10 +13635,10 @@
       <c r="C390" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="D390" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E390" s="68">
+      <c r="D390" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E390" s="67">
         <v>0.05</v>
       </c>
     </row>
@@ -13478,10 +13652,10 @@
       <c r="C391" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D391" s="60">
+      <c r="D391" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E391" s="68">
+      <c r="E391" s="67">
         <v>0.18</v>
       </c>
     </row>
@@ -13495,160 +13669,607 @@
       <c r="C392" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="D392" s="60">
-        <v>0.12</v>
-      </c>
-      <c r="E392" s="68">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" ht="117.5" thickBot="1">
-      <c r="A393" s="22">
+      <c r="D392" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E392" s="67">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="117">
+      <c r="A393" s="20">
         <v>391</v>
       </c>
-      <c r="B393" s="13" t="s">
+      <c r="B393" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="C393" s="70" t="s">
+      <c r="C393" s="58" t="s">
         <v>646</v>
       </c>
-      <c r="D393" s="71">
-        <v>0.12</v>
-      </c>
-      <c r="E393" s="72">
+      <c r="D393" s="59">
+        <v>0.12</v>
+      </c>
+      <c r="E393" s="67">
         <v>0.18</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
-      <c r="A394" s="15"/>
-      <c r="B394" s="15"/>
-    </row>
-    <row r="395" spans="1:5">
-      <c r="A395" s="15"/>
-      <c r="B395" s="15"/>
-    </row>
-    <row r="396" spans="1:5">
-      <c r="A396" s="15"/>
-      <c r="B396" s="15"/>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="A397" s="15"/>
-      <c r="B397" s="15"/>
+    <row r="394" spans="1:5" ht="26">
+      <c r="A394" s="20">
+        <v>392</v>
+      </c>
+      <c r="B394" s="28">
+        <v>9954</v>
+      </c>
+      <c r="C394" s="69" t="s">
+        <v>663</v>
+      </c>
+      <c r="D394" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E394" s="71" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="26">
+      <c r="A395" s="20">
+        <v>393</v>
+      </c>
+      <c r="B395" s="28">
+        <v>9954</v>
+      </c>
+      <c r="C395" s="69" t="s">
+        <v>662</v>
+      </c>
+      <c r="D395" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E395" s="71" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="26">
+      <c r="A396" s="20">
+        <v>394</v>
+      </c>
+      <c r="B396" s="28">
+        <v>9954</v>
+      </c>
+      <c r="C396" s="69" t="s">
+        <v>664</v>
+      </c>
+      <c r="D396" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E396" s="71" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="26">
+      <c r="A397" s="20">
+        <v>395</v>
+      </c>
+      <c r="B397" s="28">
+        <v>9963</v>
+      </c>
+      <c r="C397" s="69" t="s">
+        <v>667</v>
+      </c>
+      <c r="D397" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E397" s="71" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="398" spans="1:5">
-      <c r="A398" s="15"/>
-      <c r="B398" s="15"/>
-    </row>
-    <row r="399" spans="1:5">
-      <c r="A399" s="15"/>
-      <c r="B399" s="15"/>
-    </row>
-    <row r="400" spans="1:5">
-      <c r="A400" s="15"/>
-      <c r="B400" s="15"/>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" s="15"/>
-      <c r="B401" s="15"/>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" s="15"/>
-      <c r="B402" s="15"/>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403" s="15"/>
-      <c r="B403" s="15"/>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404" s="15"/>
-      <c r="B404" s="15"/>
-    </row>
-    <row r="405" spans="1:2">
-      <c r="A405" s="15"/>
-      <c r="B405" s="15"/>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406" s="15"/>
-      <c r="B406" s="15"/>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407" s="15"/>
-      <c r="B407" s="15"/>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" s="15"/>
-      <c r="B408" s="15"/>
-    </row>
-    <row r="409" spans="1:2">
-      <c r="B409" s="15"/>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="B410" s="15"/>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="B411" s="15"/>
-    </row>
-    <row r="412" spans="1:2">
-      <c r="B412" s="15"/>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="B413" s="15"/>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="B414" s="15"/>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="B415" s="15"/>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="B416" s="15"/>
-    </row>
-    <row r="417" spans="2:2">
-      <c r="B417" s="15"/>
-    </row>
-    <row r="418" spans="2:2">
-      <c r="B418" s="15"/>
-    </row>
-    <row r="419" spans="2:2">
-      <c r="B419" s="15"/>
-    </row>
-    <row r="420" spans="2:2">
-      <c r="B420" s="15"/>
-    </row>
-    <row r="421" spans="2:2">
-      <c r="B421" s="15"/>
-    </row>
-    <row r="422" spans="2:2">
-      <c r="B422" s="15"/>
-    </row>
-    <row r="423" spans="2:2">
-      <c r="B423" s="15"/>
-    </row>
-    <row r="424" spans="2:2">
-      <c r="B424" s="15"/>
-    </row>
-    <row r="425" spans="2:2">
-      <c r="B425" s="15"/>
-    </row>
-    <row r="426" spans="2:2">
-      <c r="B426" s="15"/>
-    </row>
-    <row r="427" spans="2:2">
+      <c r="A398" s="20">
+        <v>396</v>
+      </c>
+      <c r="B398" s="28">
+        <v>9964</v>
+      </c>
+      <c r="C398" s="69" t="s">
+        <v>669</v>
+      </c>
+      <c r="D398" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E398" s="71" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="65">
+      <c r="A399" s="20">
+        <v>397</v>
+      </c>
+      <c r="B399" s="28">
+        <v>9964</v>
+      </c>
+      <c r="C399" s="69" t="s">
+        <v>670</v>
+      </c>
+      <c r="D399" s="70" t="s">
+        <v>671</v>
+      </c>
+      <c r="E399" s="71" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="52">
+      <c r="A400" s="20">
+        <v>398</v>
+      </c>
+      <c r="B400" s="28">
+        <v>9965</v>
+      </c>
+      <c r="C400" s="69" t="s">
+        <v>673</v>
+      </c>
+      <c r="D400" s="70" t="s">
+        <v>674</v>
+      </c>
+      <c r="E400" s="71" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" ht="26">
+      <c r="A401" s="20">
+        <v>399</v>
+      </c>
+      <c r="B401" s="28">
+        <v>9965</v>
+      </c>
+      <c r="C401" s="69" t="s">
+        <v>676</v>
+      </c>
+      <c r="D401" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E401" s="71" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="39">
+      <c r="A402" s="20">
+        <v>400</v>
+      </c>
+      <c r="B402" s="28">
+        <v>9965</v>
+      </c>
+      <c r="C402" s="69" t="s">
+        <v>678</v>
+      </c>
+      <c r="D402" s="70" t="s">
+        <v>679</v>
+      </c>
+      <c r="E402" s="71" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="78">
+      <c r="A403" s="20">
+        <v>401</v>
+      </c>
+      <c r="B403" s="28">
+        <v>9965</v>
+      </c>
+      <c r="C403" s="69" t="s">
+        <v>681</v>
+      </c>
+      <c r="D403" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E403" s="71" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="65">
+      <c r="A404" s="20">
+        <v>402</v>
+      </c>
+      <c r="B404" s="28">
+        <v>9966</v>
+      </c>
+      <c r="C404" s="69" t="s">
+        <v>683</v>
+      </c>
+      <c r="D404" s="70" t="s">
+        <v>684</v>
+      </c>
+      <c r="E404" s="71" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="52">
+      <c r="A405" s="20">
+        <v>403</v>
+      </c>
+      <c r="B405" s="28">
+        <v>9966</v>
+      </c>
+      <c r="C405" s="69" t="s">
+        <v>686</v>
+      </c>
+      <c r="D405" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E405" s="71" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="20">
+        <v>404</v>
+      </c>
+      <c r="B406" s="28">
+        <v>9968</v>
+      </c>
+      <c r="C406" s="69" t="s">
+        <v>688</v>
+      </c>
+      <c r="D406" s="70" t="s">
+        <v>666</v>
+      </c>
+      <c r="E406" s="71" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" ht="52">
+      <c r="A407" s="20">
+        <v>405</v>
+      </c>
+      <c r="B407" s="28">
+        <v>9968</v>
+      </c>
+      <c r="C407" s="69" t="s">
+        <v>690</v>
+      </c>
+      <c r="D407" s="70" t="s">
+        <v>691</v>
+      </c>
+      <c r="E407" s="71" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="20">
+        <v>406</v>
+      </c>
+      <c r="B408" s="28">
+        <v>9971</v>
+      </c>
+      <c r="C408" s="69" t="s">
+        <v>695</v>
+      </c>
+      <c r="D408" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E408" s="71" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="20">
+        <v>407</v>
+      </c>
+      <c r="B409" s="28">
+        <v>9973</v>
+      </c>
+      <c r="C409" s="69" t="s">
+        <v>696</v>
+      </c>
+      <c r="D409" s="70" t="s">
+        <v>697</v>
+      </c>
+      <c r="E409" s="71" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" ht="26">
+      <c r="A410" s="20">
+        <v>408</v>
+      </c>
+      <c r="B410" s="28">
+        <v>9983</v>
+      </c>
+      <c r="C410" s="69" t="s">
+        <v>698</v>
+      </c>
+      <c r="D410" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E410" s="71" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="20">
+        <v>409</v>
+      </c>
+      <c r="B411" s="28">
+        <v>9986</v>
+      </c>
+      <c r="C411" s="69" t="s">
+        <v>699</v>
+      </c>
+      <c r="D411" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E411" s="71" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="20">
+        <v>410</v>
+      </c>
+      <c r="B412" s="28">
+        <v>9988</v>
+      </c>
+      <c r="C412" s="69" t="s">
+        <v>700</v>
+      </c>
+      <c r="D412" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E412" s="71" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" ht="26">
+      <c r="A413" s="20">
+        <v>411</v>
+      </c>
+      <c r="B413" s="28">
+        <v>9988</v>
+      </c>
+      <c r="C413" s="69" t="s">
+        <v>701</v>
+      </c>
+      <c r="D413" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E413" s="71" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="20">
+        <v>412</v>
+      </c>
+      <c r="B414" s="28">
+        <v>9988</v>
+      </c>
+      <c r="C414" s="69" t="s">
+        <v>702</v>
+      </c>
+      <c r="D414" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E414" s="71" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" ht="26">
+      <c r="A415" s="20">
+        <v>413</v>
+      </c>
+      <c r="B415" s="28">
+        <v>9988</v>
+      </c>
+      <c r="C415" s="69" t="s">
+        <v>703</v>
+      </c>
+      <c r="D415" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E415" s="71" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" ht="26">
+      <c r="A416" s="20">
+        <v>414</v>
+      </c>
+      <c r="B416" s="28">
+        <v>9988</v>
+      </c>
+      <c r="C416" s="69" t="s">
+        <v>704</v>
+      </c>
+      <c r="D416" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E416" s="71" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="20">
+        <v>415</v>
+      </c>
+      <c r="B417" s="28">
+        <v>9988</v>
+      </c>
+      <c r="C417" s="69" t="s">
+        <v>705</v>
+      </c>
+      <c r="D417" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E417" s="71" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="20">
+        <v>416</v>
+      </c>
+      <c r="B418" s="28">
+        <v>9994</v>
+      </c>
+      <c r="C418" s="69" t="s">
+        <v>706</v>
+      </c>
+      <c r="D418" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E418" s="71" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" ht="26">
+      <c r="A419" s="20">
+        <v>417</v>
+      </c>
+      <c r="B419" s="28">
+        <v>9994</v>
+      </c>
+      <c r="C419" s="69" t="s">
+        <v>707</v>
+      </c>
+      <c r="D419" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E419" s="71" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" ht="26">
+      <c r="A420" s="20">
+        <v>418</v>
+      </c>
+      <c r="B420" s="28">
+        <v>9996</v>
+      </c>
+      <c r="C420" s="69" t="s">
+        <v>708</v>
+      </c>
+      <c r="D420" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E420" s="71" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="20">
+        <v>419</v>
+      </c>
+      <c r="B421" s="28">
+        <v>9996</v>
+      </c>
+      <c r="C421" s="69" t="s">
+        <v>709</v>
+      </c>
+      <c r="D421" s="70" t="s">
+        <v>697</v>
+      </c>
+      <c r="E421" s="71" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="20">
+        <v>420</v>
+      </c>
+      <c r="B422" s="28">
+        <v>9996</v>
+      </c>
+      <c r="C422" s="69" t="s">
+        <v>710</v>
+      </c>
+      <c r="D422" s="70" t="s">
+        <v>697</v>
+      </c>
+      <c r="E422" s="71" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="20">
+        <v>421</v>
+      </c>
+      <c r="B423" s="28">
+        <v>9997</v>
+      </c>
+      <c r="C423" s="69" t="s">
+        <v>712</v>
+      </c>
+      <c r="D423" s="70" t="s">
+        <v>666</v>
+      </c>
+      <c r="E423" s="71" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" ht="26">
+      <c r="A424" s="20">
+        <v>422</v>
+      </c>
+      <c r="B424" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="C424" s="69" t="s">
+        <v>713</v>
+      </c>
+      <c r="D424" s="70" t="s">
+        <v>697</v>
+      </c>
+      <c r="E424" s="71" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="20">
+        <v>423</v>
+      </c>
+      <c r="B425" s="28">
+        <v>9971</v>
+      </c>
+      <c r="C425" s="69" t="s">
+        <v>714</v>
+      </c>
+      <c r="D425" s="70" t="s">
+        <v>666</v>
+      </c>
+      <c r="E425" s="71" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A426" s="22">
+        <v>424</v>
+      </c>
+      <c r="B426" s="55">
+        <v>9971</v>
+      </c>
+      <c r="C426" s="72" t="s">
+        <v>715</v>
+      </c>
+      <c r="D426" s="73" t="s">
+        <v>666</v>
+      </c>
+      <c r="E426" s="74" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
       <c r="B427" s="15"/>
     </row>
-    <row r="428" spans="2:2">
+    <row r="428" spans="1:5">
       <c r="B428" s="15"/>
     </row>
-    <row r="429" spans="2:2">
+    <row r="429" spans="1:5">
       <c r="B429" s="15"/>
     </row>
-    <row r="430" spans="2:2">
+    <row r="430" spans="1:5">
       <c r="B430" s="15"/>
     </row>
-    <row r="431" spans="2:2">
+    <row r="431" spans="1:5">
       <c r="B431" s="15"/>
     </row>
-    <row r="432" spans="2:2">
+    <row r="432" spans="1:5">
       <c r="B432" s="15"/>
     </row>
     <row r="433" spans="2:2">
@@ -14409,66 +15030,6 @@
     </row>
     <row r="685" spans="2:2">
       <c r="B685" s="15"/>
-    </row>
-    <row r="686" spans="2:2">
-      <c r="B686" s="15"/>
-    </row>
-    <row r="687" spans="2:2">
-      <c r="B687" s="15"/>
-    </row>
-    <row r="688" spans="2:2">
-      <c r="B688" s="15"/>
-    </row>
-    <row r="689" spans="2:2">
-      <c r="B689" s="15"/>
-    </row>
-    <row r="690" spans="2:2">
-      <c r="B690" s="15"/>
-    </row>
-    <row r="691" spans="2:2">
-      <c r="B691" s="15"/>
-    </row>
-    <row r="692" spans="2:2">
-      <c r="B692" s="15"/>
-    </row>
-    <row r="693" spans="2:2">
-      <c r="B693" s="15"/>
-    </row>
-    <row r="694" spans="2:2">
-      <c r="B694" s="15"/>
-    </row>
-    <row r="695" spans="2:2">
-      <c r="B695" s="15"/>
-    </row>
-    <row r="696" spans="2:2">
-      <c r="B696" s="15"/>
-    </row>
-    <row r="697" spans="2:2">
-      <c r="B697" s="15"/>
-    </row>
-    <row r="698" spans="2:2">
-      <c r="B698" s="15"/>
-    </row>
-    <row r="699" spans="2:2">
-      <c r="B699" s="15"/>
-    </row>
-    <row r="700" spans="2:2">
-      <c r="B700" s="15"/>
-    </row>
-    <row r="701" spans="2:2">
-      <c r="B701" s="15"/>
-    </row>
-    <row r="702" spans="2:2">
-      <c r="B702" s="15"/>
-    </row>
-    <row r="703" spans="2:2">
-      <c r="B703" s="15"/>
-    </row>
-    <row r="704" spans="2:2">
-      <c r="B704" s="15"/>
-    </row>
-    <row r="705" spans="2:2">
-      <c r="B705" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14611,7 +15172,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
